--- a/julia_msp/acwi_15.05.24.xlsx
+++ b/julia_msp/acwi_15.05.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja portfela\julia_msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1F95B-8BC4-4C17-8721-3888B62986E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1F916A-9DCC-44A4-8BEB-486745D43CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,20 @@
     <sheet name="net" sheetId="1" r:id="rId2"/>
     <sheet name="Arkusz1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3106,12 +3119,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3135,7 +3148,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3143,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3159,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3167,7 +3180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>896</v>
       </c>
@@ -3175,7 +3188,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>894</v>
       </c>
@@ -3183,7 +3196,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>892</v>
       </c>
@@ -3191,7 +3204,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>890</v>
       </c>
@@ -3199,7 +3212,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>888</v>
       </c>
@@ -3207,7 +3220,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>886</v>
       </c>
@@ -3215,7 +3228,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>884</v>
       </c>
@@ -3223,7 +3236,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>882</v>
       </c>
@@ -3231,7 +3244,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>880</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>878</v>
       </c>
@@ -3247,7 +3260,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>876</v>
       </c>
@@ -3255,7 +3268,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>874</v>
       </c>
@@ -3263,7 +3276,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>872</v>
       </c>
@@ -3271,7 +3284,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>870</v>
       </c>
@@ -3279,7 +3292,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>868</v>
       </c>
@@ -3287,7 +3300,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>866</v>
       </c>
@@ -3295,7 +3308,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>864</v>
       </c>
@@ -3303,7 +3316,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>862</v>
       </c>
@@ -3311,7 +3324,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>860</v>
       </c>
@@ -3319,7 +3332,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>858</v>
       </c>
@@ -3327,7 +3340,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>856</v>
       </c>
@@ -3335,7 +3348,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>854</v>
       </c>
@@ -3343,7 +3356,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>852</v>
       </c>
@@ -3351,7 +3364,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>850</v>
       </c>
@@ -3359,7 +3372,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>848</v>
       </c>
@@ -3367,7 +3380,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>846</v>
       </c>
@@ -3375,7 +3388,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>844</v>
       </c>
@@ -3383,7 +3396,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>842</v>
       </c>
@@ -3391,7 +3404,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>840</v>
       </c>
@@ -3399,7 +3412,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>838</v>
       </c>
@@ -3407,7 +3420,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>836</v>
       </c>
@@ -3415,7 +3428,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>834</v>
       </c>
@@ -3423,7 +3436,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>832</v>
       </c>
@@ -3431,7 +3444,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>830</v>
       </c>
@@ -3439,7 +3452,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>828</v>
       </c>
@@ -3447,7 +3460,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>826</v>
       </c>
@@ -3455,7 +3468,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>824</v>
       </c>
@@ -3463,7 +3476,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>822</v>
       </c>
@@ -3471,7 +3484,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>820</v>
       </c>
@@ -3479,7 +3492,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>818</v>
       </c>
@@ -3487,7 +3500,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>816</v>
       </c>
@@ -3495,7 +3508,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>814</v>
       </c>
@@ -3503,7 +3516,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>812</v>
       </c>
@@ -3511,7 +3524,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>810</v>
       </c>
@@ -3519,7 +3532,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>808</v>
       </c>
@@ -3527,7 +3540,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>806</v>
       </c>
@@ -3535,7 +3548,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>804</v>
       </c>
@@ -3543,7 +3556,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>802</v>
       </c>
@@ -3551,7 +3564,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>800</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>798</v>
       </c>
@@ -3567,7 +3580,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>796</v>
       </c>
@@ -3575,7 +3588,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>794</v>
       </c>
@@ -3583,7 +3596,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>792</v>
       </c>
@@ -3591,7 +3604,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>790</v>
       </c>
@@ -3599,7 +3612,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>788</v>
       </c>
@@ -3607,7 +3620,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>786</v>
       </c>
@@ -3615,7 +3628,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>784</v>
       </c>
@@ -3623,7 +3636,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>782</v>
       </c>
@@ -3631,7 +3644,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>780</v>
       </c>
@@ -3639,7 +3652,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>778</v>
       </c>
@@ -3647,7 +3660,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>776</v>
       </c>
@@ -3655,7 +3668,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>774</v>
       </c>
@@ -3663,7 +3676,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>772</v>
       </c>
@@ -3671,7 +3684,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>770</v>
       </c>
@@ -3679,7 +3692,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>768</v>
       </c>
@@ -3687,7 +3700,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>766</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>764</v>
       </c>
@@ -3703,7 +3716,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>762</v>
       </c>
@@ -3711,7 +3724,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>760</v>
       </c>
@@ -3719,7 +3732,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>758</v>
       </c>
@@ -3727,7 +3740,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>756</v>
       </c>
@@ -3735,7 +3748,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>754</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>752</v>
       </c>
@@ -3751,7 +3764,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>750</v>
       </c>
@@ -3759,7 +3772,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>748</v>
       </c>
@@ -3767,7 +3780,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>746</v>
       </c>
@@ -3775,7 +3788,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>744</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>742</v>
       </c>
@@ -3791,7 +3804,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>740</v>
       </c>
@@ -3799,7 +3812,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>738</v>
       </c>
@@ -3807,7 +3820,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>736</v>
       </c>
@@ -3815,7 +3828,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>734</v>
       </c>
@@ -3823,7 +3836,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>732</v>
       </c>
@@ -3831,7 +3844,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>730</v>
       </c>
@@ -3839,7 +3852,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>728</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>726</v>
       </c>
@@ -3855,7 +3868,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>724</v>
       </c>
@@ -3863,7 +3876,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>722</v>
       </c>
@@ -3871,7 +3884,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>720</v>
       </c>
@@ -3879,7 +3892,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>718</v>
       </c>
@@ -3887,7 +3900,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>716</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>714</v>
       </c>
@@ -3903,7 +3916,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>712</v>
       </c>
@@ -3911,7 +3924,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>710</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>708</v>
       </c>
@@ -3927,7 +3940,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>706</v>
       </c>
@@ -3935,7 +3948,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>704</v>
       </c>
@@ -3943,7 +3956,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>702</v>
       </c>
@@ -3951,7 +3964,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>700</v>
       </c>
@@ -3959,7 +3972,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>698</v>
       </c>
@@ -3967,7 +3980,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>696</v>
       </c>
@@ -3975,7 +3988,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>694</v>
       </c>
@@ -3983,7 +3996,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>692</v>
       </c>
@@ -3991,7 +4004,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>690</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>688</v>
       </c>
@@ -4007,7 +4020,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>686</v>
       </c>
@@ -4015,7 +4028,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>684</v>
       </c>
@@ -4023,7 +4036,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>682</v>
       </c>
@@ -4031,7 +4044,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>680</v>
       </c>
@@ -4039,7 +4052,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>678</v>
       </c>
@@ -4047,7 +4060,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>676</v>
       </c>
@@ -4055,7 +4068,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>674</v>
       </c>
@@ -4063,7 +4076,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>672</v>
       </c>
@@ -4071,7 +4084,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>670</v>
       </c>
@@ -4079,7 +4092,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>668</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>666</v>
       </c>
@@ -4095,7 +4108,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>664</v>
       </c>
@@ -4103,7 +4116,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>662</v>
       </c>
@@ -4111,7 +4124,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>660</v>
       </c>
@@ -4119,7 +4132,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>658</v>
       </c>
@@ -4127,7 +4140,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>656</v>
       </c>
@@ -4135,7 +4148,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>654</v>
       </c>
@@ -4143,7 +4156,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>652</v>
       </c>
@@ -4151,7 +4164,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>650</v>
       </c>
@@ -4159,7 +4172,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>648</v>
       </c>
@@ -4167,7 +4180,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>646</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>644</v>
       </c>
@@ -4183,7 +4196,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>642</v>
       </c>
@@ -4191,7 +4204,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>640</v>
       </c>
@@ -4199,7 +4212,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>638</v>
       </c>
@@ -4207,7 +4220,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>636</v>
       </c>
@@ -4215,7 +4228,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>634</v>
       </c>
@@ -4223,7 +4236,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>632</v>
       </c>
@@ -4231,7 +4244,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>630</v>
       </c>
@@ -4239,7 +4252,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>628</v>
       </c>
@@ -4247,7 +4260,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>626</v>
       </c>
@@ -4255,7 +4268,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>624</v>
       </c>
@@ -4263,7 +4276,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>622</v>
       </c>
@@ -4271,7 +4284,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>620</v>
       </c>
@@ -4279,7 +4292,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>618</v>
       </c>
@@ -4287,7 +4300,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>616</v>
       </c>
@@ -4295,7 +4308,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>614</v>
       </c>
@@ -4303,7 +4316,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>612</v>
       </c>
@@ -4311,7 +4324,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>610</v>
       </c>
@@ -4319,7 +4332,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>608</v>
       </c>
@@ -4327,7 +4340,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>606</v>
       </c>
@@ -4335,7 +4348,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>604</v>
       </c>
@@ -4343,7 +4356,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>602</v>
       </c>
@@ -4351,7 +4364,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>600</v>
       </c>
@@ -4359,7 +4372,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>598</v>
       </c>
@@ -4367,7 +4380,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>596</v>
       </c>
@@ -4375,7 +4388,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>594</v>
       </c>
@@ -4383,7 +4396,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>592</v>
       </c>
@@ -4391,7 +4404,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>590</v>
       </c>
@@ -4399,7 +4412,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>588</v>
       </c>
@@ -4407,7 +4420,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>586</v>
       </c>
@@ -4415,7 +4428,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>7</v>
       </c>
@@ -4423,7 +4436,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>8</v>
       </c>
@@ -4431,7 +4444,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>9</v>
       </c>
@@ -4439,7 +4452,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>10</v>
       </c>
@@ -4447,7 +4460,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>11</v>
       </c>
@@ -4455,7 +4468,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>12</v>
       </c>
@@ -4463,7 +4476,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>13</v>
       </c>
@@ -4471,7 +4484,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>14</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>15</v>
       </c>
@@ -4487,7 +4500,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>16</v>
       </c>
@@ -4495,7 +4508,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>17</v>
       </c>
@@ -4503,7 +4516,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>18</v>
       </c>
@@ -4511,7 +4524,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>19</v>
       </c>
@@ -4519,7 +4532,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>20</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>21</v>
       </c>
@@ -4535,7 +4548,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>22</v>
       </c>
@@ -4543,7 +4556,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>23</v>
       </c>
@@ -4551,7 +4564,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>24</v>
       </c>
@@ -4559,7 +4572,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>25</v>
       </c>
@@ -4567,7 +4580,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>26</v>
       </c>
@@ -4575,7 +4588,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>27</v>
       </c>
@@ -4583,7 +4596,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>28</v>
       </c>
@@ -4591,7 +4604,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>29</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>30</v>
       </c>
@@ -4607,7 +4620,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>31</v>
       </c>
@@ -4615,7 +4628,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>32</v>
       </c>
@@ -4623,7 +4636,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>33</v>
       </c>
@@ -4631,7 +4644,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>34</v>
       </c>
@@ -4639,7 +4652,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>35</v>
       </c>
@@ -4647,7 +4660,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>36</v>
       </c>
@@ -4655,7 +4668,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>37</v>
       </c>
@@ -4663,7 +4676,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>38</v>
       </c>
@@ -4671,7 +4684,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>39</v>
       </c>
@@ -4679,7 +4692,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>40</v>
       </c>
@@ -4687,7 +4700,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>41</v>
       </c>
@@ -4695,7 +4708,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>42</v>
       </c>
@@ -4703,7 +4716,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>43</v>
       </c>
@@ -4711,7 +4724,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>44</v>
       </c>
@@ -4719,7 +4732,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>45</v>
       </c>
@@ -4727,7 +4740,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>46</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>47</v>
       </c>
@@ -4743,7 +4756,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>48</v>
       </c>
@@ -4751,7 +4764,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>49</v>
       </c>
@@ -4759,7 +4772,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>50</v>
       </c>
@@ -4767,7 +4780,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>51</v>
       </c>
@@ -4775,7 +4788,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>52</v>
       </c>
@@ -4783,7 +4796,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>53</v>
       </c>
@@ -4791,7 +4804,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>54</v>
       </c>
@@ -4799,7 +4812,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>55</v>
       </c>
@@ -4807,7 +4820,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>56</v>
       </c>
@@ -4815,7 +4828,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>57</v>
       </c>
@@ -4823,7 +4836,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>58</v>
       </c>
@@ -4831,7 +4844,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>59</v>
       </c>
@@ -4839,7 +4852,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>60</v>
       </c>
@@ -4847,7 +4860,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>61</v>
       </c>
@@ -4855,7 +4868,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>62</v>
       </c>
@@ -4863,7 +4876,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>63</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>64</v>
       </c>
@@ -4879,7 +4892,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>65</v>
       </c>
@@ -4887,7 +4900,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>66</v>
       </c>
@@ -4895,7 +4908,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>67</v>
       </c>
@@ -4903,7 +4916,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>68</v>
       </c>
@@ -4911,7 +4924,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>69</v>
       </c>
@@ -4919,7 +4932,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>70</v>
       </c>
@@ -4927,7 +4940,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>71</v>
       </c>
@@ -4935,7 +4948,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>72</v>
       </c>
@@ -4943,7 +4956,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>73</v>
       </c>
@@ -4951,7 +4964,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>74</v>
       </c>
@@ -4959,7 +4972,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>75</v>
       </c>
@@ -4967,7 +4980,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>76</v>
       </c>
@@ -4975,7 +4988,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>77</v>
       </c>
@@ -4983,7 +4996,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>78</v>
       </c>
@@ -4991,7 +5004,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>79</v>
       </c>
@@ -4999,7 +5012,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>80</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>81</v>
       </c>
@@ -5015,7 +5028,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>82</v>
       </c>
@@ -5023,7 +5036,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>83</v>
       </c>
@@ -5031,7 +5044,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>84</v>
       </c>
@@ -5039,7 +5052,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>85</v>
       </c>
@@ -5047,7 +5060,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>86</v>
       </c>
@@ -5055,7 +5068,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>87</v>
       </c>
@@ -5063,7 +5076,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>88</v>
       </c>
@@ -5071,7 +5084,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>89</v>
       </c>
@@ -5079,7 +5092,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>90</v>
       </c>
@@ -5087,7 +5100,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>91</v>
       </c>
@@ -5095,7 +5108,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>92</v>
       </c>
@@ -5103,7 +5116,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>93</v>
       </c>
@@ -5111,7 +5124,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>94</v>
       </c>
@@ -5119,7 +5132,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>95</v>
       </c>
@@ -5127,7 +5140,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>96</v>
       </c>
@@ -5135,7 +5148,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>97</v>
       </c>
@@ -5143,7 +5156,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>98</v>
       </c>
@@ -5151,7 +5164,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>99</v>
       </c>
@@ -5159,7 +5172,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>100</v>
       </c>
@@ -5167,7 +5180,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>101</v>
       </c>
@@ -5175,7 +5188,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>102</v>
       </c>
@@ -5183,7 +5196,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>103</v>
       </c>
@@ -5191,7 +5204,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>104</v>
       </c>
@@ -5199,7 +5212,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>105</v>
       </c>
@@ -5207,7 +5220,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>106</v>
       </c>
@@ -5215,7 +5228,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>107</v>
       </c>
@@ -5223,7 +5236,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>108</v>
       </c>
@@ -5231,7 +5244,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>109</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>110</v>
       </c>
@@ -5247,7 +5260,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>111</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>112</v>
       </c>
@@ -5263,7 +5276,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>113</v>
       </c>
@@ -5271,7 +5284,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>114</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>115</v>
       </c>
@@ -5287,7 +5300,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>116</v>
       </c>
@@ -5295,7 +5308,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>117</v>
       </c>
@@ -5303,7 +5316,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>118</v>
       </c>
@@ -5311,7 +5324,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>119</v>
       </c>
@@ -5319,7 +5332,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>120</v>
       </c>
@@ -5327,7 +5340,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>121</v>
       </c>
@@ -5335,7 +5348,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>122</v>
       </c>
@@ -5343,7 +5356,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>123</v>
       </c>
@@ -5351,7 +5364,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>124</v>
       </c>
@@ -5359,7 +5372,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>125</v>
       </c>
@@ -5367,7 +5380,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>126</v>
       </c>
@@ -5375,7 +5388,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>127</v>
       </c>
@@ -5383,7 +5396,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>128</v>
       </c>
@@ -5391,7 +5404,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>129</v>
       </c>
@@ -5399,7 +5412,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>130</v>
       </c>
@@ -5407,7 +5420,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>131</v>
       </c>
@@ -5415,7 +5428,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>132</v>
       </c>
@@ -5423,7 +5436,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>133</v>
       </c>
@@ -5431,7 +5444,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>134</v>
       </c>
@@ -5439,7 +5452,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>135</v>
       </c>
@@ -5447,7 +5460,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>136</v>
       </c>
@@ -5455,7 +5468,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>137</v>
       </c>
@@ -5463,7 +5476,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>138</v>
       </c>
@@ -5471,7 +5484,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>139</v>
       </c>
@@ -5479,7 +5492,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>140</v>
       </c>
@@ -5487,7 +5500,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>141</v>
       </c>
@@ -5495,7 +5508,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>142</v>
       </c>
@@ -5503,7 +5516,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>143</v>
       </c>
@@ -5511,7 +5524,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>144</v>
       </c>
@@ -5519,7 +5532,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>145</v>
       </c>
@@ -5527,7 +5540,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>146</v>
       </c>
@@ -5535,7 +5548,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>147</v>
       </c>
@@ -5543,7 +5556,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>148</v>
       </c>
@@ -5551,7 +5564,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>149</v>
       </c>
@@ -5559,7 +5572,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>150</v>
       </c>
@@ -5567,7 +5580,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>151</v>
       </c>
@@ -5575,7 +5588,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>152</v>
       </c>
@@ -5583,7 +5596,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>153</v>
       </c>
@@ -5591,7 +5604,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>154</v>
       </c>
@@ -5599,7 +5612,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>155</v>
       </c>
@@ -5607,7 +5620,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>156</v>
       </c>
@@ -5615,7 +5628,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>157</v>
       </c>
@@ -5623,7 +5636,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>158</v>
       </c>
@@ -5631,7 +5644,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>159</v>
       </c>
@@ -5639,7 +5652,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>160</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>161</v>
       </c>
@@ -5655,7 +5668,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>162</v>
       </c>
@@ -5663,7 +5676,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>163</v>
       </c>
@@ -5671,7 +5684,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>164</v>
       </c>
@@ -5679,7 +5692,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>165</v>
       </c>
@@ -5687,7 +5700,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>166</v>
       </c>
@@ -5695,7 +5708,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>167</v>
       </c>
@@ -5703,7 +5716,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>168</v>
       </c>
@@ -5711,7 +5724,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>169</v>
       </c>
@@ -5719,7 +5732,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>170</v>
       </c>
@@ -5727,7 +5740,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>171</v>
       </c>
@@ -5735,7 +5748,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>172</v>
       </c>
@@ -5743,7 +5756,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>173</v>
       </c>
@@ -5751,7 +5764,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>174</v>
       </c>
@@ -5759,7 +5772,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>175</v>
       </c>
@@ -5767,7 +5780,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>176</v>
       </c>
@@ -5775,7 +5788,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>177</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>178</v>
       </c>
@@ -5791,7 +5804,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>179</v>
       </c>
@@ -5799,7 +5812,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>180</v>
       </c>
@@ -5807,7 +5820,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>181</v>
       </c>
@@ -5815,7 +5828,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>182</v>
       </c>
@@ -5823,7 +5836,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>183</v>
       </c>
@@ -5831,7 +5844,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>184</v>
       </c>
@@ -5839,7 +5852,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>185</v>
       </c>
@@ -5847,7 +5860,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>186</v>
       </c>
@@ -5855,7 +5868,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>187</v>
       </c>
@@ -5863,7 +5876,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>188</v>
       </c>
@@ -5871,7 +5884,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>189</v>
       </c>
@@ -5879,7 +5892,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>190</v>
       </c>
@@ -5887,7 +5900,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>191</v>
       </c>
@@ -5895,7 +5908,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>192</v>
       </c>
@@ -5903,7 +5916,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>193</v>
       </c>
@@ -5911,7 +5924,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>194</v>
       </c>
@@ -5919,7 +5932,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>195</v>
       </c>
@@ -5927,7 +5940,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>196</v>
       </c>
@@ -5935,7 +5948,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>197</v>
       </c>
@@ -5943,7 +5956,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>198</v>
       </c>
@@ -5951,7 +5964,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>199</v>
       </c>
@@ -5959,7 +5972,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>200</v>
       </c>
@@ -5967,7 +5980,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>201</v>
       </c>
@@ -5975,7 +5988,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>202</v>
       </c>
@@ -5983,7 +5996,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>203</v>
       </c>
@@ -5991,7 +6004,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>204</v>
       </c>
@@ -5999,7 +6012,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>205</v>
       </c>
@@ -6007,7 +6020,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>206</v>
       </c>
@@ -6015,7 +6028,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>207</v>
       </c>
@@ -6023,7 +6036,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>208</v>
       </c>
@@ -6031,7 +6044,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>209</v>
       </c>
@@ -6039,7 +6052,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>210</v>
       </c>
@@ -6047,7 +6060,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>211</v>
       </c>
@@ -6055,7 +6068,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>212</v>
       </c>
@@ -6063,7 +6076,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>213</v>
       </c>
@@ -6071,7 +6084,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>214</v>
       </c>
@@ -6079,7 +6092,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>215</v>
       </c>
@@ -6087,7 +6100,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>216</v>
       </c>
@@ -6095,7 +6108,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>217</v>
       </c>
@@ -6103,7 +6116,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>218</v>
       </c>
@@ -6111,7 +6124,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>219</v>
       </c>
@@ -6119,7 +6132,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>220</v>
       </c>
@@ -6127,7 +6140,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>221</v>
       </c>
@@ -6135,7 +6148,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>222</v>
       </c>
@@ -6143,7 +6156,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>223</v>
       </c>
@@ -6151,7 +6164,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>224</v>
       </c>
@@ -6159,7 +6172,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>225</v>
       </c>
@@ -6167,7 +6180,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>226</v>
       </c>
@@ -6175,7 +6188,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>227</v>
       </c>
@@ -6183,7 +6196,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>228</v>
       </c>
@@ -6191,7 +6204,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>229</v>
       </c>
@@ -6199,7 +6212,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>230</v>
       </c>
@@ -6207,7 +6220,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>231</v>
       </c>
@@ -6215,7 +6228,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>232</v>
       </c>
@@ -6223,7 +6236,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>233</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>234</v>
       </c>
@@ -6239,7 +6252,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>235</v>
       </c>
@@ -6247,7 +6260,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>236</v>
       </c>
@@ -6255,7 +6268,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>237</v>
       </c>
@@ -6263,7 +6276,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>238</v>
       </c>
@@ -6271,7 +6284,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>239</v>
       </c>
@@ -6279,7 +6292,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>240</v>
       </c>
@@ -6287,7 +6300,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>241</v>
       </c>
@@ -6295,7 +6308,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>242</v>
       </c>
@@ -6303,7 +6316,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>243</v>
       </c>
@@ -6311,7 +6324,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>244</v>
       </c>
@@ -6319,7 +6332,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>245</v>
       </c>
@@ -6327,7 +6340,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>246</v>
       </c>
@@ -6335,7 +6348,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>247</v>
       </c>
@@ -6343,7 +6356,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>248</v>
       </c>
@@ -6351,7 +6364,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>249</v>
       </c>
@@ -6359,7 +6372,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>250</v>
       </c>
@@ -6367,7 +6380,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>251</v>
       </c>
@@ -6375,7 +6388,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>252</v>
       </c>
@@ -6383,7 +6396,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>253</v>
       </c>
@@ -6391,7 +6404,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>254</v>
       </c>
@@ -6399,7 +6412,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>255</v>
       </c>
@@ -6407,7 +6420,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>256</v>
       </c>
@@ -6415,7 +6428,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>257</v>
       </c>
@@ -6423,7 +6436,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>258</v>
       </c>
@@ -6431,7 +6444,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>259</v>
       </c>
@@ -6439,7 +6452,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>260</v>
       </c>
@@ -6447,7 +6460,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>261</v>
       </c>
@@ -6455,7 +6468,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>262</v>
       </c>
@@ -6463,7 +6476,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>263</v>
       </c>
@@ -6471,7 +6484,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>264</v>
       </c>
@@ -6479,7 +6492,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>265</v>
       </c>
@@ -6487,7 +6500,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>266</v>
       </c>
@@ -6495,7 +6508,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>267</v>
       </c>
@@ -6503,7 +6516,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>268</v>
       </c>
@@ -6511,7 +6524,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>269</v>
       </c>
@@ -6519,7 +6532,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>270</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>271</v>
       </c>
@@ -6535,7 +6548,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>272</v>
       </c>
@@ -6543,7 +6556,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>273</v>
       </c>
@@ -6551,7 +6564,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>274</v>
       </c>
@@ -6559,7 +6572,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>275</v>
       </c>
@@ -6567,7 +6580,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>276</v>
       </c>
@@ -6575,7 +6588,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>277</v>
       </c>
@@ -6583,7 +6596,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>278</v>
       </c>
@@ -6591,7 +6604,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>279</v>
       </c>
@@ -6599,7 +6612,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>280</v>
       </c>
@@ -6607,7 +6620,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>281</v>
       </c>
@@ -6615,7 +6628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>282</v>
       </c>
@@ -6623,7 +6636,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>283</v>
       </c>
@@ -6631,7 +6644,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>284</v>
       </c>
@@ -6639,7 +6652,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>285</v>
       </c>
@@ -6647,7 +6660,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>286</v>
       </c>
@@ -6655,7 +6668,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>287</v>
       </c>
@@ -6663,7 +6676,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>0</v>
       </c>
@@ -6671,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>0</v>
       </c>
@@ -6679,87 +6692,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>303</v>
       </c>
@@ -6776,12 +6789,15 @@
   <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B288"/>
+      <selection activeCell="B288" sqref="A7:B288"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6789,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6797,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6805,7 +6821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6813,7 +6829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -6829,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6837,7 +6853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6845,7 +6861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6853,7 +6869,7 @@
         <v>102.514</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6861,7 +6877,7 @@
         <v>93.869</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6869,7 +6885,7 @@
         <v>87.516000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6877,7 +6893,7 @@
         <v>93.852999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6885,7 +6901,7 @@
         <v>92.75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6893,7 +6909,7 @@
         <v>89.882000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6901,7 +6917,7 @@
         <v>88.447000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6909,7 +6925,7 @@
         <v>84.352000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6917,7 +6933,7 @@
         <v>76.625</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6925,7 +6941,7 @@
         <v>78.242000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6933,7 +6949,7 @@
         <v>83.031000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6941,7 +6957,7 @@
         <v>83.790999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6949,7 +6965,7 @@
         <v>81.477999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -6957,7 +6973,7 @@
         <v>80.855000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -6965,7 +6981,7 @@
         <v>84.477000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -6973,7 +6989,7 @@
         <v>81.77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -6981,7 +6997,7 @@
         <v>81.832999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6989,7 +7005,7 @@
         <v>76.808999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6997,7 +7013,7 @@
         <v>70.350999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -7005,7 +7021,7 @@
         <v>70.507000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -7013,7 +7029,7 @@
         <v>62.75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -7021,7 +7037,7 @@
         <v>67.352999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7029,7 +7045,7 @@
         <v>71.013000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -7037,7 +7053,7 @@
         <v>67.605000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7045,7 +7061,7 @@
         <v>65.614999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -7053,7 +7069,7 @@
         <v>64.438000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -7061,7 +7077,7 @@
         <v>64.16</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -7069,7 +7085,7 @@
         <v>69.846999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -7077,7 +7093,7 @@
         <v>73.863</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -7085,7 +7101,7 @@
         <v>75.245999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -7093,7 +7109,7 @@
         <v>76.891999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -7101,7 +7117,7 @@
         <v>78.69</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -7109,7 +7125,7 @@
         <v>79.168000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -7117,7 +7133,7 @@
         <v>83.947999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -7125,7 +7141,7 @@
         <v>85.204999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7133,7 +7149,7 @@
         <v>90.581999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -7141,7 +7157,7 @@
         <v>92.111999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -7149,7 +7165,7 @@
         <v>93.778999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -7157,7 +7173,7 @@
         <v>93.242999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -7165,7 +7181,7 @@
         <v>91.052999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7173,7 +7189,7 @@
         <v>91.76</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -7181,7 +7197,7 @@
         <v>93.575999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -7189,7 +7205,7 @@
         <v>90.581000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -7197,7 +7213,7 @@
         <v>91.132999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -7205,7 +7221,7 @@
         <v>93.025000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -7213,7 +7229,7 @@
         <v>95.299000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7221,7 +7237,7 @@
         <v>100.49299999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -7229,7 +7245,7 @@
         <v>104.381</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -7237,7 +7253,7 @@
         <v>102.167</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -7245,7 +7261,7 @@
         <v>105.70699999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -7253,7 +7269,7 @@
         <v>103.378</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -7261,7 +7277,7 @@
         <v>101.09699999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7269,7 +7285,7 @@
         <v>102.985</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -7277,7 +7293,7 @@
         <v>104.026</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7285,7 +7301,7 @@
         <v>107.873</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7293,7 +7309,7 @@
         <v>108.69199999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -7301,7 +7317,7 @@
         <v>111.96299999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -7309,7 +7325,7 @@
         <v>108.947</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -7317,7 +7333,7 @@
         <v>112.914</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -7325,7 +7341,7 @@
         <v>115.691</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -7333,7 +7349,7 @@
         <v>121.386</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -7341,7 +7357,7 @@
         <v>121.208</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -7349,7 +7365,7 @@
         <v>123.75700000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -7357,7 +7373,7 @@
         <v>127.876</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -7365,7 +7381,7 @@
         <v>122.83499999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -7373,7 +7389,7 @@
         <v>122.782</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -7381,7 +7397,7 @@
         <v>123.62</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -7389,7 +7405,7 @@
         <v>126.825</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -7397,7 +7413,7 @@
         <v>128.303</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -7405,7 +7421,7 @@
         <v>133.11500000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -7413,7 +7429,7 @@
         <v>136.87899999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -7421,7 +7437,7 @@
         <v>139.93299999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -7429,7 +7445,7 @@
         <v>141.32499999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -7437,7 +7453,7 @@
         <v>140.58099999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -7445,7 +7461,7 @@
         <v>143.4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -7453,7 +7469,7 @@
         <v>149.76599999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -7461,7 +7477,7 @@
         <v>154.21899999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -7469,7 +7485,7 @@
         <v>153.76499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -7477,7 +7493,7 @@
         <v>151.417</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -7485,7 +7501,7 @@
         <v>150.99799999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -7493,7 +7509,7 @@
         <v>159.10400000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -7501,7 +7517,7 @@
         <v>165.31100000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -7509,7 +7525,7 @@
         <v>158.00200000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -7517,7 +7533,7 @@
         <v>156.25299999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -7525,7 +7541,7 @@
         <v>143.45500000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -7533,7 +7549,7 @@
         <v>143.86099999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>141.75</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -7549,7 +7565,7 @@
         <v>149.65799999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -7557,7 +7573,7 @@
         <v>151.99700000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -7565,7 +7581,7 @@
         <v>139.51599999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -7573,7 +7589,7 @@
         <v>135.893</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -7581,7 +7597,7 @@
         <v>132.964</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -7589,7 +7605,7 @@
         <v>116.346</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -7597,7 +7613,7 @@
         <v>93.292000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -7605,7 +7621,7 @@
         <v>87.162999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -7613,7 +7629,7 @@
         <v>90.322000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -7621,7 +7637,7 @@
         <v>82.605000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -7629,7 +7645,7 @@
         <v>74.516999999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -7637,7 +7653,7 @@
         <v>80.655000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -7645,7 +7661,7 @@
         <v>90.176000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -7653,7 +7669,7 @@
         <v>99.161000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -7661,7 +7677,7 @@
         <v>98.605000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -7669,7 +7685,7 @@
         <v>107.285</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -7677,7 +7693,7 @@
         <v>111.122</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -7685,7 +7701,7 @@
         <v>116.22</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -7693,7 +7709,7 @@
         <v>114.42400000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -7701,7 +7717,7 @@
         <v>119.13</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -7709,7 +7725,7 @@
         <v>121.59699999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -7717,7 +7733,7 @@
         <v>116.342</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -7725,7 +7741,7 @@
         <v>117.824</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -7733,7 +7749,7 @@
         <v>125.404</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -7741,7 +7757,7 @@
         <v>125.61499999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7749,7 +7765,7 @@
         <v>113.706</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -7757,7 +7773,7 @@
         <v>110.203</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7765,7 +7781,7 @@
         <v>119.17</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -7773,7 +7789,7 @@
         <v>115.004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -7781,7 +7797,7 @@
         <v>126.006</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -7789,7 +7805,7 @@
         <v>130.56</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -7797,7 +7813,7 @@
         <v>127.655</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -7805,7 +7821,7 @@
         <v>137.00299999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -7813,7 +7829,7 @@
         <v>139.15299999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -7821,7 +7837,7 @@
         <v>143.20500000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -7829,7 +7845,7 @@
         <v>143.06200000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -7837,7 +7853,7 @@
         <v>148.91499999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -7845,7 +7861,7 @@
         <v>145.714</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -7853,7 +7869,7 @@
         <v>143.41800000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7861,7 +7877,7 @@
         <v>141.083</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -7869,7 +7885,7 @@
         <v>130.77699999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -7877,7 +7893,7 @@
         <v>118.43</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -7885,7 +7901,7 @@
         <v>131.119</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -7893,7 +7909,7 @@
         <v>127.194</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -7901,7 +7917,7 @@
         <v>126.937</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -7909,7 +7925,7 @@
         <v>134.31800000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7917,7 +7933,7 @@
         <v>141.07599999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -7925,7 +7941,7 @@
         <v>142.01300000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -7933,7 +7949,7 @@
         <v>140.38900000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -7941,7 +7957,7 @@
         <v>127.80200000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7949,7 +7965,7 @@
         <v>134.114</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -7957,7 +7973,7 @@
         <v>135.94999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -7965,7 +7981,7 @@
         <v>138.90600000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7973,7 +7989,7 @@
         <v>143.28100000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -7981,7 +7997,7 @@
         <v>142.32599999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -7989,7 +8005,7 @@
         <v>144.14599999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -7997,7 +8013,7 @@
         <v>147.411</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -8005,7 +8021,7 @@
         <v>154.202</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -8013,7 +8029,7 @@
         <v>154.178</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -8021,7 +8037,7 @@
         <v>156.99700000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -8029,7 +8045,7 @@
         <v>161.482</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -8037,7 +8053,7 @@
         <v>161.03899999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -8045,7 +8061,7 @@
         <v>156.33199999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -8053,7 +8069,7 @@
         <v>163.816</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -8061,7 +8077,7 @@
         <v>160.40299999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -8069,7 +8085,7 @@
         <v>168.68799999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -8077,7 +8093,7 @@
         <v>175.46799999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>177.953</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -8093,7 +8109,7 @@
         <v>181.023</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -8101,7 +8117,7 @@
         <v>173.78200000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -8109,7 +8125,7 @@
         <v>182.17699999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -8117,7 +8133,7 @@
         <v>182.98699999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -8125,7 +8141,7 @@
         <v>184.72900000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -8133,7 +8149,7 @@
         <v>188.65799999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -8141,7 +8157,7 @@
         <v>192.21</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -8149,7 +8165,7 @@
         <v>189.87899999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -8157,7 +8173,7 @@
         <v>194.07300000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -8165,7 +8181,7 @@
         <v>187.78</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -8173,7 +8189,7 @@
         <v>189.102</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -8181,7 +8197,7 @@
         <v>192.26499999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -8189,7 +8205,7 @@
         <v>188.55500000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -8197,7 +8213,7 @@
         <v>185.607</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -8205,7 +8221,7 @@
         <v>195.94</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -8213,7 +8229,7 @@
         <v>192.904</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -8221,7 +8237,7 @@
         <v>198.501</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -8229,7 +8245,7 @@
         <v>198.24199999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -8237,7 +8253,7 @@
         <v>193.57499999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -8245,7 +8261,7 @@
         <v>195.256</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -8253,7 +8269,7 @@
         <v>181.87100000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -8261,7 +8277,7 @@
         <v>175.28200000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8269,7 +8285,7 @@
         <v>189.03899999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -8277,7 +8293,7 @@
         <v>187.47800000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -8285,7 +8301,7 @@
         <v>184.09700000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -8293,7 +8309,7 @@
         <v>172.994</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -8301,7 +8317,7 @@
         <v>171.804</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -8309,7 +8325,7 @@
         <v>184.536</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -8317,7 +8333,7 @@
         <v>187.26</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -8325,7 +8341,7 @@
         <v>187.49600000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -8333,7 +8349,7 @@
         <v>186.36099999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -8341,7 +8357,7 @@
         <v>194.392</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -8349,7 +8365,7 @@
         <v>195.04599999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -8357,7 +8373,7 @@
         <v>196.24100000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -8365,7 +8381,7 @@
         <v>192.91</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -8373,7 +8389,7 @@
         <v>194.376</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -8381,7 +8397,7 @@
         <v>198.57499999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -8389,7 +8405,7 @@
         <v>204.005</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -8397,7 +8413,7 @@
         <v>209.72800000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -8405,7 +8421,7 @@
         <v>212.29300000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -8413,7 +8429,7 @@
         <v>215.602</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -8421,7 +8437,7 @@
         <v>220.363</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -8429,7 +8445,7 @@
         <v>221.36500000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -8437,7 +8453,7 @@
         <v>227.55099999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -8445,7 +8461,7 @@
         <v>228.423</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -8453,7 +8469,7 @@
         <v>232.83600000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -8461,7 +8477,7 @@
         <v>237.67099999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -8469,7 +8485,7 @@
         <v>242.27199999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -8477,7 +8493,7 @@
         <v>246.178</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -8485,7 +8501,7 @@
         <v>260.06599999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -8493,7 +8509,7 @@
         <v>249.14400000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -8501,7 +8517,7 @@
         <v>243.81100000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -8509,7 +8525,7 @@
         <v>246.13900000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -8517,7 +8533,7 @@
         <v>246.446</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -8525,7 +8541,7 @@
         <v>245.11199999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -8533,7 +8549,7 @@
         <v>252.50399999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -8541,7 +8557,7 @@
         <v>254.48699999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -8549,7 +8565,7 @@
         <v>255.595</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -8557,7 +8573,7 @@
         <v>236.441</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -8565,7 +8581,7 @@
         <v>239.899</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -8573,7 +8589,7 @@
         <v>223.00200000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -8581,7 +8597,7 @@
         <v>240.61</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -8589,7 +8605,7 @@
         <v>247.04599999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8597,7 +8613,7 @@
         <v>250.15199999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8605,7 +8621,7 @@
         <v>258.59899999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8613,7 +8629,7 @@
         <v>243.25899999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8621,7 +8637,7 @@
         <v>259.18799999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8629,7 +8645,7 @@
         <v>259.947</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8637,7 +8653,7 @@
         <v>253.78100000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8645,7 +8661,7 @@
         <v>259.12</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8653,7 +8669,7 @@
         <v>266.21199999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8661,7 +8677,7 @@
         <v>272.71100000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8669,7 +8685,7 @@
         <v>282.31400000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8677,7 +8693,7 @@
         <v>279.19600000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8685,7 +8701,7 @@
         <v>256.64499999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8693,7 +8709,7 @@
         <v>221.99700000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8701,7 +8717,7 @@
         <v>245.779</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8709,7 +8725,7 @@
         <v>256.46800000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8717,7 +8733,7 @@
         <v>264.66300000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8725,7 +8741,7 @@
         <v>278.66000000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8733,7 +8749,7 @@
         <v>295.71600000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8741,7 +8757,7 @@
         <v>286.18099999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8749,7 +8765,7 @@
         <v>279.22399999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8757,7 +8773,7 @@
         <v>313.642</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8765,7 +8781,7 @@
         <v>328.20400000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8773,7 +8789,7 @@
         <v>326.71199999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8781,7 +8797,7 @@
         <v>334.279</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8789,7 +8805,7 @@
         <v>343.20800000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8797,7 +8813,7 @@
         <v>358.214</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8805,7 +8821,7 @@
         <v>363.78800000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8813,7 +8829,7 @@
         <v>368.58199999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8821,7 +8837,7 @@
         <v>371.12200000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8829,7 +8845,7 @@
         <v>380.411</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8837,7 +8853,7 @@
         <v>364.69600000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8845,7 +8861,7 @@
         <v>383.31200000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8853,7 +8869,7 @@
         <v>374.08100000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8861,7 +8877,7 @@
         <v>389.04500000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8869,7 +8885,7 @@
         <v>369.93799999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8877,7 +8893,7 @@
         <v>360.38299999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8885,7 +8901,7 @@
         <v>368.18900000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8893,7 +8909,7 @@
         <v>338.71800000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8901,7 +8917,7 @@
         <v>339.11500000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8909,7 +8925,7 @@
         <v>310.529</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8917,7 +8933,7 @@
         <v>332.214</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8925,7 +8941,7 @@
         <v>319.983</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8933,7 +8949,7 @@
         <v>289.351</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8941,7 +8957,7 @@
         <v>306.81299999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8949,7 +8965,7 @@
         <v>330.61</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8957,7 +8973,7 @@
         <v>317.601</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8965,7 +8981,7 @@
         <v>340.36500000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8973,7 +8989,7 @@
         <v>330.61</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8981,7 +8997,7 @@
         <v>340.80399999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8989,7 +9005,7 @@
         <v>345.702</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8997,7 +9013,7 @@
         <v>341.99900000000002</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -9005,7 +9021,7 @@
         <v>361.85599999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -9013,7 +9029,7 @@
         <v>375.10300000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -9021,7 +9037,7 @@
         <v>364.62099999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -9029,7 +9045,7 @@
         <v>349.54399999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -9037,7 +9053,7 @@
         <v>339.03399999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -9045,7 +9061,7 @@
         <v>370.32600000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -9053,7 +9069,7 @@
         <v>388.11399999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -9061,7 +9077,7 @@
         <v>390.38900000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -9069,7 +9085,7 @@
         <v>407.142</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -9077,7 +9093,7 @@
         <v>419.92500000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -9085,7 +9101,7 @@
         <v>406.07</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -9093,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -9101,87 +9117,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>303</v>
       </c>
@@ -9199,7 +9215,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
